--- a/Assets/Resources/ResCfg/Talent.xlsx
+++ b/Assets/Resources/ResCfg/Talent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityRes\GitHub\posuishijie\PoSuiShiJie-master\Assets\Resources\ResCfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F6DB2-61B2-4019-819A-C55E9B4930D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1353D19D-EE0B-497B-93B4-A1AE0E69C5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,22 @@
   </si>
   <si>
     <t>ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +557,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,8 +671,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>50005</v>
+      <c r="A6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -675,8 +691,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>50006</v>
+      <c r="A7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -695,8 +711,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>50007</v>
+      <c r="A8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -715,8 +731,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>50008</v>
+      <c r="A9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>

--- a/Assets/Resources/ResCfg/Talent.xlsx
+++ b/Assets/Resources/ResCfg/Talent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityRes\GitHub\posuishijie\PoSuiShiJie-master\Assets\Resources\ResCfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1353D19D-EE0B-497B-93B4-A1AE0E69C5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468EFAEF-04C7-4DB3-892A-94CAAB91227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,11 +38,14 @@
   <connection id="4" xr16:uid="{9B6A1771-7BEA-416F-A1F4-7EB05250DBFD}" name="Talent3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Desktop\Talent.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="5" xr16:uid="{B2DB1B96-4808-40C7-94E4-084436F5F1EE}" name="Talent4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Desktop\Talent.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +171,66 @@
   <si>
     <t>50014</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据传从远古大能处获取的力量，传说只有那些经过生死考验的强者才能拥有不灭之躯。这股力量将穿越时空，强化持有者的生命力，使其变得近乎不死，任何致命伤害对他们来说不过是轻微的挫折。</t>
+  </si>
+  <si>
+    <t>很久以前，神秘的远古战士发现了生命的奥秘，凝聚出了一种不灭的力量。这种力量如今以天赋的形式传承下来，唯有极少数人能唤醒其真正潜能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一种源自自然界生命本能的力量，它能让持有者如同大自然般顽强地生长与复苏。当体力殆尽之时，这股天赋会让持有者的生命力加速恢复，宛如烈焰中的凤凰般重生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽强复苏是自然法则的一部分，被认为是生命之母的恩赐。持有此天赋的人，将永远不会轻易被战场所摧毁，无论多么严重的创伤，他们的身体都能迅速恢复如初。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说生命之泉是世上最纯净的生命能量源泉，它拥有着无尽的治愈力量。掌握此天赋的人，其身体能时刻吸收这种生命能量，从而极大提升自我恢复能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说生命之泉曾是一处仙境中的奇迹之水，但如今已湮灭在历史长河中。尽管如此，它的力量以另一种形式遗留下来，成为可以赋予凡人无尽生命力的天赋。</t>
+  </si>
+  <si>
+    <t>大地的坚韧与磐石的稳固赋予了此天赋不可动摇的防御力。持有此天赋的人如同大山般坚定，无论多么强大的力量击打，他们的身体都能减少所受的伤害。</t>
+  </si>
+  <si>
+    <t>坚如磐石的力量起源于古老的岩石巨人，据说他们拥有天生的防御天赋。那些掌握此天赋的勇士，往往能够在最危急的战斗中坚持到最后一刻，令敌人绝望。</t>
+  </si>
+  <si>
+    <t>这是一股源自狂战士的力量，拥有它的人会在战斗中变得极为狂暴。每一击都充满了破坏性的力量，令人畏惧。他们的攻击带有狂野的力量，轻易就能击碎敌人的防御。</t>
+  </si>
+  <si>
+    <t>狂暴之力据说来源于古代狂战士的灵魂，那些嗜战如命的战士在死后，他们的灵魂仍然在战场上游荡，寻找有资格继承他们力量的战士。</t>
+  </si>
+  <si>
+    <t>掌握此天赋的人拥有永不熄灭的怒火。他们的每一击都充满了无穷的愤怒，甚至在他们的攻击中还有几率释放出恐怖的暴击，让敌人猝不及防。</t>
+  </si>
+  <si>
+    <t>据说，无尽怒火是某位战神的遗物，蕴含着他生前无法平息的愤怒。传说持有这份天赋的人在战斗时会爆发出不寻常的愤怒，这种愤怒能直接转化为毁灭性的打击。</t>
+  </si>
+  <si>
+    <t>传说中的暗杀者们曾经掌握的技巧，能够让他们的每一次攻击都充满毁灭性的力量。一旦触发致命一击，敌人将毫无招架之力，瞬间倒地。</t>
+  </si>
+  <si>
+    <t>致命一击被认为是古代刺客组织传下来的终极技艺，只有极少数人能够完全掌握这种力量。一旦成功释放，敌人将瞬间被撕裂，连最坚固的防御也无法抵挡。</t>
+  </si>
+  <si>
+    <t>如同潮水般无尽的攻击让持有者在战场上成为噩梦般的存在。攻势迅猛且无懈可击，他们的每一击都连接得天衣无缝，让敌人毫无喘息的机会。</t>
+  </si>
+  <si>
+    <t>据传，这种力量源自某位战神的祝福，能让战士们在战斗中不断加快攻击频率，直到敌人彻底崩溃为止。这种攻势让他们的敌人无法防御，最终在狂风暴雨般的打击下被摧毁。</t>
   </si>
 </sst>
 </file>
@@ -210,14 +273,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -236,7 +314,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="root">
         <xsd:complexType>
@@ -249,6 +327,8 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxLevel" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Attribute" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Desc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="BackGround" form="unqualified"/>
                 </xsd:sequence>
                 <xsd:attribute name="ID" form="unqualified" type="xsd:string"/>
               </xsd:complexType>
@@ -258,33 +338,39 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="4" Name="root_映射" RootElement="root" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
+  <Map ID="5" Name="root_映射" RootElement="root" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{5EC81493-A2A7-4593-BEF4-2B8249F04A98}" name="表13" displayName="表13" ref="A1:F9" tableType="xml" totalsRowShown="0" headerRowDxfId="0" connectionId="4">
-  <autoFilter ref="A1:F9" xr:uid="{5EC81493-A2A7-4593-BEF4-2B8249F04A98}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{5EC81493-A2A7-4593-BEF4-2B8249F04A98}" name="表13" displayName="表13" ref="A1:H9" tableType="xml" totalsRowShown="0" headerRowDxfId="2" connectionId="5">
+  <autoFilter ref="A1:H9" xr:uid="{5EC81493-A2A7-4593-BEF4-2B8249F04A98}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2E2EE7B7-2168-4F2A-8469-296805B057CF}" uniqueName="ID" name="Id">
-      <xmlColumnPr mapId="4" xpath="/root/item/@ID" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/root/item/@ID" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{D567A756-EF1D-4E8B-BF43-F0D853A91C53}" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="4" xpath="/root/item/Name" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/root/item/Name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{9ABDE81D-7F62-45C2-B35D-43B58281E00F}" uniqueName="Info" name="Info">
-      <xmlColumnPr mapId="4" xpath="/root/item/Info" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/root/item/Info" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{294C3D72-D280-4BF1-A417-39F18BC359A0}" uniqueName="MaxLevel" name="MaxLevel">
-      <xmlColumnPr mapId="4" xpath="/root/item/MaxLevel" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/root/item/MaxLevel" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{605AAAD3-2A61-429E-B33B-8564B7CB5F78}" uniqueName="Attribute" name="Attribute">
-      <xmlColumnPr mapId="4" xpath="/root/item/Attribute" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/root/item/Attribute" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{A0BF20BA-0926-421D-98CE-46BC866733D4}" uniqueName="Value" name="Value">
-      <xmlColumnPr mapId="4" xpath="/root/item/Value" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/root/item/Value" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{DF7F6C0B-8D87-4C9F-AA18-97526CA27594}" uniqueName="Desc" name="Desc" dataDxfId="1">
+      <xmlColumnPr mapId="5" xpath="/root/item/Desc" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{DF12D48E-7F8C-45AA-B549-AC1CC868E805}" uniqueName="BackGround" name="BackGround" dataDxfId="0">
+      <xmlColumnPr mapId="5" xpath="/root/item/BackGround" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -554,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,9 +654,11 @@
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="71" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,8 +677,14 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>50001</v>
       </c>
@@ -609,8 +703,14 @@
       <c r="F2" s="1">
         <v>10</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>50002</v>
       </c>
@@ -629,8 +729,14 @@
       <c r="F3" s="1">
         <v>10</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>50003</v>
       </c>
@@ -649,8 +755,14 @@
       <c r="F4" s="1">
         <v>10</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>50004</v>
       </c>
@@ -669,8 +781,14 @@
       <c r="F5" s="1">
         <v>10</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -689,8 +807,14 @@
       <c r="F6" s="1">
         <v>10</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -709,8 +833,14 @@
       <c r="F7" s="1">
         <v>10</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -729,8 +859,14 @@
       <c r="F8" s="1">
         <v>10</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -748,6 +884,12 @@
       </c>
       <c r="F9" s="1">
         <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
